--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43512,6 +43512,41 @@
         <v>350600</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>342800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43547,6 +43547,41 @@
         <v>342800</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>327100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43582,6 +43582,41 @@
         <v>327100</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43617,6 +43617,41 @@
         <v>23100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>190000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43652,6 +43652,41 @@
         <v>190000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2488800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,6 +43687,41 @@
         <v>2488800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>484300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,41 @@
         <v>484300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,41 @@
         <v>23100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>533000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43792,6 +43792,41 @@
         <v>533000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>156400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43827,6 +43827,41 @@
         <v>156400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>415800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43862,6 +43862,41 @@
         <v>415800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>397300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43897,6 +43897,41 @@
         <v>397300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43932,6 +43932,76 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>510400</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1311600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44002,6 +44002,76 @@
         <v>1311600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>55200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44072,6 +44072,43 @@
         <v>55200</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44109,6 +44109,41 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44144,6 +44144,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44179,6 +44179,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>395000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44214,6 +44214,76 @@
         <v>395000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2170800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44284,6 +44284,41 @@
         <v>2170800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>390600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44319,6 +44319,41 @@
         <v>390600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>956600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84639,6 +84639,41 @@
         <v>956600</v>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>475100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84674,6 +84674,41 @@
         <v>475100</v>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2391" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84709,6 +84709,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2392" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84744,6 +84744,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2393" t="n">
+        <v>494300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84779,6 +84779,41 @@
         <v>494300</v>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2394" t="n">
+        <v>284600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84814,6 +84814,41 @@
         <v>284600</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2395" t="n">
+        <v>258000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84849,6 +84849,41 @@
         <v>258000</v>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>231000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84884,6 +84884,41 @@
         <v>231000</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2397" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84919,6 +84919,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2398" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2398"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84954,6 +84954,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2399" t="n">
+        <v>374400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84989,6 +84989,41 @@
         <v>374400</v>
       </c>
     </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2400" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2400" t="n">
+        <v>402600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2400"/>
+  <dimension ref="A1:I2401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85024,6 +85024,41 @@
         <v>402600</v>
       </c>
     </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2401" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2401" t="n">
+        <v>79000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2401"/>
+  <dimension ref="A1:I2402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85059,6 +85059,41 @@
         <v>79000</v>
       </c>
     </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2402" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2402" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2402" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2402"/>
+  <dimension ref="A1:I2403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85094,6 +85094,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2403" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2403" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2403" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7170.xlsx
+++ b/data/7170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2403"/>
+  <dimension ref="A1:I2404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85129,6 +85129,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>LFECORP</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2404" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
